--- a/HTML/Marketing Excel.xlsx
+++ b/HTML/Marketing Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC1BD13-0FB9-41DF-A090-E08CCEA1493F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDECB19-9C84-4E1A-AEB0-73ABE8DA43E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>MOZ</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Flickr</t>
+  </si>
+  <si>
+    <t>يلا ماركتينج</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="18"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -131,6 +134,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <u/>
       <sz val="18"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -167,11 +172,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,16 +464,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.42578125" defaultRowHeight="70.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="33.42578125" defaultRowHeight="70.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="33.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +491,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -500,7 +509,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -518,7 +527,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -536,7 +545,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -552,25 +561,11 @@
       <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+    <row r="7" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -599,7 +594,7 @@
     <hyperlink ref="C5" r:id="rId23" display="https://www.strategyzer.com/" xr:uid="{53AAA52B-1478-49DA-B99D-B666B972B1D9}"/>
     <hyperlink ref="D5" r:id="rId24" display="https://pixabay.com/" xr:uid="{FC2CA3C3-C0D5-438E-A8AE-BF8D9C3726D1}"/>
     <hyperlink ref="E5" r:id="rId25" display="https://www.flickr.com/explore" xr:uid="{E241C13D-2444-496C-AFEF-50E91B84BE13}"/>
-    <hyperlink ref="A6" r:id="rId26" display="https://www.facebook.com/groups/yallamarketingegypt" xr:uid="{73A79B2C-8B45-4FC8-9EBC-F50D8634C61E}"/>
+    <hyperlink ref="A7" r:id="rId26" display="https://www.facebook.com/groups/yallamarketingegypt" xr:uid="{73A79B2C-8B45-4FC8-9EBC-F50D8634C61E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId27"/>
